--- a/documentos/POAINICIAL_MATRICES/MATRIZ1.xlsx
+++ b/documentos/POAINICIAL_MATRICES/MATRIZ1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD7D14-231F-40F0-B9E3-0D2867CB34B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D726ABA1-1E25-4C84-AFFB-69FA7084555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1605" windowWidth="20160" windowHeight="10695" xr2:uid="{DDB45A2C-7152-4AB9-92B8-3DA0A78B4FB1}"/>
+    <workbookView xWindow="1785" yWindow="2085" windowWidth="20160" windowHeight="10695" xr2:uid="{DA5EB632-D7FC-41FC-915A-0AA9E1C43A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,63 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Justificación de la adquisición del bien o servicio</t>
+  </si>
+  <si>
+    <t>Cantidad del bien o servicio a adquirir</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>MARZO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÓDIGO ÍTEM </t>
+  </si>
+  <si>
+    <t>TOTAL Programación Financiera</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,57 +434,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EEF61E-EBE0-46F8-9E36-3C53BB088F0F}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E811D44-2AE0-4C23-8BCF-0BB52FCDC723}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1801716026</v>
-      </c>
-      <c r="B1">
-        <v>1724428246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4444444</v>
-      </c>
-      <c r="B2">
-        <v>23333333</v>
-      </c>
-      <c r="C2" s="1">
-        <v>23333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5555555555</v>
-      </c>
-      <c r="B3">
-        <v>56666000000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>56666000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>777777</v>
-      </c>
-      <c r="B4">
-        <v>888888888</v>
-      </c>
-      <c r="C4">
-        <v>888888888</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
